--- a/1ToDo.xlsx
+++ b/1ToDo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>GitDoc</t>
   </si>
@@ -89,6 +89,10 @@
       </rPr>
       <t>5</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lesson 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -504,42 +508,42 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="29.25" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="22.375" customWidth="1"/>
-    <col min="4" max="4" width="17.75" customWidth="1"/>
-    <col min="5" max="5" width="18.5" customWidth="1"/>
-    <col min="6" max="6" width="9.875" customWidth="1"/>
+    <col min="2" max="2" width="20.125" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="22.375" customWidth="1"/>
+    <col min="5" max="5" width="17.75" customWidth="1"/>
+    <col min="6" max="6" width="18.5" customWidth="1"/>
     <col min="7" max="7" width="14.25" customWidth="1"/>
-    <col min="8" max="8" width="20.125" customWidth="1"/>
+    <col min="8" max="8" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1">
@@ -547,19 +551,22 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>11</v>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/1ToDo.xlsx
+++ b/1ToDo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>GitDoc</t>
   </si>
@@ -30,9 +30,6 @@
     <t>HeadFirstC#</t>
   </si>
   <si>
-    <t>Premiere</t>
-  </si>
-  <si>
     <t>Substance</t>
   </si>
   <si>
@@ -42,16 +39,52 @@
     <t>2016.11.29 - 2016.12.04</t>
   </si>
   <si>
+    <t>4.5.6.7.8</t>
+  </si>
+  <si>
+    <t>page137-237</t>
+  </si>
+  <si>
+    <t>Lesson 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.12.5 - 2016.12.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.grab</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.autofight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>3.gitBranching</t>
-  </si>
-  <si>
-    <t>4.5.6.7.8</t>
-  </si>
-  <si>
-    <t>page137-237</t>
-  </si>
-  <si>
-    <t>1.grab  2.autofight</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -76,23 +109,29 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>4.</t>
+      <t>4</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>5</t>
+      <t>yVideo</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Lesson 1</t>
+    <t>片头</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -100,7 +139,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,19 +181,11 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF00B050"/>
+      <color rgb="FF92D050"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -163,15 +194,14 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF92D050"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -196,7 +226,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -204,6 +234,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -505,27 +541,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="29.25" customWidth="1"/>
-    <col min="2" max="2" width="20.125" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="22.375" customWidth="1"/>
-    <col min="5" max="5" width="17.75" customWidth="1"/>
-    <col min="6" max="6" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="14.125" customWidth="1"/>
+    <col min="4" max="4" width="13.25" customWidth="1"/>
+    <col min="5" max="5" width="11.25" customWidth="1"/>
+    <col min="6" max="6" width="13.375" customWidth="1"/>
     <col min="7" max="7" width="14.25" customWidth="1"/>
     <col min="8" max="8" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -540,33 +576,44 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
         <v>4</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/1ToDo.xlsx
+++ b/1ToDo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>GitDoc</t>
   </si>
@@ -132,6 +132,18 @@
   </si>
   <si>
     <t>片头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.Git on the Server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.12.12 - 2016.12.18</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -541,17 +553,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="29.25" customWidth="1"/>
-    <col min="2" max="2" width="13.375" customWidth="1"/>
-    <col min="3" max="3" width="14.125" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="33.25" customWidth="1"/>
     <col min="4" max="4" width="13.25" customWidth="1"/>
     <col min="5" max="5" width="11.25" customWidth="1"/>
     <col min="6" max="6" width="13.375" customWidth="1"/>
@@ -614,6 +626,17 @@
       </c>
       <c r="F3" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/1ToDo.xlsx
+++ b/1ToDo.xlsx
@@ -553,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -637,6 +637,11 @@
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="E5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/1ToDo.xlsx
+++ b/1ToDo.xlsx
@@ -553,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -637,6 +637,11 @@
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="D7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/1ToDo.xlsx
+++ b/1ToDo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>GitDoc</t>
   </si>
@@ -144,6 +144,10 @@
   </si>
   <si>
     <t>2016.12.12 - 2016.12.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.one model</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -216,12 +220,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -238,7 +254,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -251,11 +267,29 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -556,14 +590,14 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="29.25" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="33.25" customWidth="1"/>
+    <col min="1" max="1" width="8.75" customWidth="1"/>
+    <col min="2" max="2" width="16.875" customWidth="1"/>
+    <col min="3" max="3" width="21.125" customWidth="1"/>
     <col min="4" max="4" width="13.25" customWidth="1"/>
     <col min="5" max="5" width="11.25" customWidth="1"/>
     <col min="6" max="6" width="13.375" customWidth="1"/>
@@ -594,46 +628,49 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:8" s="4" customFormat="1">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:8" s="11" customFormat="1">
+      <c r="A3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>19</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>

--- a/1ToDo.xlsx
+++ b/1ToDo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>GitDoc</t>
   </si>
@@ -150,6 +150,13 @@
     <t>1.one model</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>program</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Top-Down RPG Starter Kit v1.2</t>
+  </si>
 </sst>
 </file>
 
@@ -166,6 +173,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -587,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -598,54 +606,57 @@
     <col min="1" max="1" width="8.75" customWidth="1"/>
     <col min="2" max="2" width="16.875" customWidth="1"/>
     <col min="3" max="3" width="21.125" customWidth="1"/>
-    <col min="4" max="4" width="13.25" customWidth="1"/>
-    <col min="5" max="5" width="11.25" customWidth="1"/>
-    <col min="6" max="6" width="13.375" customWidth="1"/>
-    <col min="7" max="7" width="14.25" customWidth="1"/>
-    <col min="8" max="8" width="9.875" customWidth="1"/>
+    <col min="5" max="5" width="13.25" customWidth="1"/>
+    <col min="6" max="6" width="11.25" customWidth="1"/>
+    <col min="7" max="7" width="13.375" customWidth="1"/>
+    <col min="8" max="8" width="14.25" customWidth="1"/>
+    <col min="9" max="9" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" t="s">
         <v>5</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="4" customFormat="1">
+    <row r="2" spans="1:9" s="4" customFormat="1">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="11" customFormat="1">
+    <row r="3" spans="1:9" s="11" customFormat="1">
       <c r="A3" s="8" t="s">
         <v>10</v>
       </c>
@@ -656,16 +667,19 @@
         <v>13</v>
       </c>
       <c r="D3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -676,8 +690,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="D7">
+    <row r="7" spans="1:9">
+      <c r="E7">
         <v>1</v>
       </c>
     </row>

--- a/1ToDo.xlsx
+++ b/1ToDo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>GitDoc</t>
   </si>
@@ -157,12 +157,53 @@
   <si>
     <t>Top-Down RPG Starter Kit v1.2</t>
   </si>
+  <si>
+    <t>2016.12.25 - 2016.12.31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Choose Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一个例子学会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>J</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>X3</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明教 藏剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一集 第二集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,6 +268,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -262,7 +311,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -297,6 +346,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -595,68 +653,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.75" customWidth="1"/>
     <col min="2" max="2" width="16.875" customWidth="1"/>
-    <col min="3" max="3" width="21.125" customWidth="1"/>
-    <col min="5" max="5" width="13.25" customWidth="1"/>
-    <col min="6" max="6" width="11.25" customWidth="1"/>
-    <col min="7" max="7" width="13.375" customWidth="1"/>
-    <col min="8" max="8" width="14.25" customWidth="1"/>
-    <col min="9" max="9" width="9.875" customWidth="1"/>
+    <col min="3" max="3" width="9.875" customWidth="1"/>
+    <col min="4" max="5" width="14.25" customWidth="1"/>
+    <col min="6" max="6" width="13.375" customWidth="1"/>
+    <col min="7" max="7" width="15.5" customWidth="1"/>
+    <col min="8" max="8" width="13.25" customWidth="1"/>
+    <col min="9" max="9" width="11.25" customWidth="1"/>
+    <col min="10" max="10" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" s="4" customFormat="1">
+    <row r="2" spans="1:10" s="4" customFormat="1">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="C2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="I2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="3" spans="1:9" s="11" customFormat="1">
+    <row r="3" spans="1:10" s="11" customFormat="1">
       <c r="A3" s="8" t="s">
         <v>10</v>
       </c>
@@ -664,34 +727,58 @@
         <v>12</v>
       </c>
       <c r="C3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="E7">
+    <row r="5" spans="1:10">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="H7">
         <v>1</v>
       </c>
     </row>
